--- a/team_specific_matrix/Keystone_A.xlsx
+++ b/team_specific_matrix/Keystone_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1428571428571428</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S7">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="E8">
-        <v>0.02631578947368421</v>
+        <v>0.015625</v>
       </c>
       <c r="F8">
-        <v>0.02631578947368421</v>
+        <v>0.046875</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.046875</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1578947368421053</v>
+        <v>0.140625</v>
       </c>
       <c r="R8">
-        <v>0.131578947368421</v>
+        <v>0.109375</v>
       </c>
       <c r="S8">
-        <v>0.6578947368421053</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09090909090909091</v>
+        <v>0.05</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.09090909090909091</v>
+        <v>0.05</v>
       </c>
       <c r="R9">
-        <v>0.09090909090909091</v>
+        <v>0.05</v>
       </c>
       <c r="S9">
-        <v>0.6363636363636364</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02941176470588235</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.02941176470588235</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02941176470588235</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1764705882352941</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="R10">
-        <v>0.08823529411764706</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S10">
-        <v>0.6470588235294118</v>
+        <v>0.5694444444444444</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1428571428571428</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="K11">
-        <v>0.1428571428571428</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="L11">
-        <v>0.7142857142857143</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,28 +1395,28 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.07692307692307693</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.3076923076923077</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="I17">
         <v>0.07692307692307693</v>
       </c>
       <c r="J17">
-        <v>0.2307692307692308</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K17">
-        <v>0.07692307692307693</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.2307692307692308</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="J18">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.3647058823529412</v>
+        <v>0.3311258278145696</v>
       </c>
       <c r="I19">
-        <v>0.08235294117647059</v>
+        <v>0.09271523178807947</v>
       </c>
       <c r="J19">
-        <v>0.3058823529411765</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="K19">
-        <v>0.04705882352941176</v>
+        <v>0.09933774834437085</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03529411764705882</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.01176470588235294</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1529411764705882</v>
+        <v>0.1390728476821192</v>
       </c>
     </row>
   </sheetData>
